--- a/secure/26e-Zoe.xlsx
+++ b/secure/26e-Zoe.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-Zoé-796759</t>
+    <t>26e-Zoé-484321</t>
   </si>
   <si>
-    <t>26e-Zoé-322010</t>
+    <t>26e-Zoé-585214</t>
   </si>
   <si>
-    <t>26e-Zoé-1016861</t>
+    <t>26e-Zoé-182418</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="Fd5f05be"/>
+        <fgColor rgb="Feb26316"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:TM503"/>
+  <dimension ref="A1:UP503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1273,14 +1273,11 @@
       </c>
       <c r="M137" s="4"/>
     </row>
-    <row r="138" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>-0.456</v>
       </c>
       <c r="M138" s="4"/>
-      <c r="TM138" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
@@ -1768,11 +1765,14 @@
       </c>
       <c r="M219" s="4"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:562" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>-0.128</v>
       </c>
       <c r="M220" s="4"/>
+      <c r="UP220" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
@@ -2098,11 +2098,14 @@
       </c>
       <c r="M274" s="4"/>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:514" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>0.092</v>
       </c>
       <c r="M275" s="4"/>
+      <c r="ST275" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
@@ -2656,11 +2659,14 @@
       </c>
       <c r="M367" s="4"/>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:180" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>0.464</v>
       </c>
       <c r="M368" s="4"/>
+      <c r="FX368" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
@@ -2932,14 +2938,11 @@
       </c>
       <c r="M413" s="4"/>
     </row>
-    <row r="414" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
         <v>0.648</v>
       </c>
       <c r="M414" s="4"/>
-      <c r="BC414" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
@@ -3193,14 +3196,11 @@
       </c>
       <c r="M456" s="4"/>
     </row>
-    <row r="457" spans="1:404" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" s="3">
         <v>0.82</v>
       </c>
       <c r="M457" s="4"/>
-      <c r="ON457" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" s="3">
